--- a/BENCHMARK-CMP.xlsx
+++ b/BENCHMARK-CMP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ser-bak-01.antennereunion.fr\Profils\Windows\oceane.sautron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ser-bak-01.antennereunion.fr\Profils\Windows\oceane.sautron\Desktop\SiteVitrineARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Outil fiable</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t xml:space="preserve">Oui </t>
+  </si>
+  <si>
+    <t>AppConsent® CMP</t>
+  </si>
+  <si>
+    <t>Oui web mobile, native IOS ANDROID</t>
+  </si>
+  <si>
+    <t>Oui, Google Tag Manager</t>
+  </si>
+  <si>
+    <t>Oui Figaro à choisi cette CMP, système anti-fraude</t>
+  </si>
+  <si>
+    <t>Oui https://chandago.gitbook.io/appconsent/</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,43 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -766,16 +817,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A7:G21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A7:G21"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Les critères" dataDxfId="6"/>
-    <tableColumn id="2" name="QUANTCAST" dataDxfId="5"/>
-    <tableColumn id="3" name="DIDOMI" dataDxfId="4"/>
-    <tableColumn id="6" name="OneTrust " dataDxfId="3"/>
-    <tableColumn id="4" name="Commander Act" dataDxfId="2"/>
-    <tableColumn id="5" name="SourcePoint" dataDxfId="1"/>
-    <tableColumn id="7" name="DigiTrust" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A7:H21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A7:H21"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Les critères" dataDxfId="7"/>
+    <tableColumn id="2" name="QUANTCAST" dataDxfId="6"/>
+    <tableColumn id="3" name="DIDOMI" dataDxfId="5"/>
+    <tableColumn id="6" name="OneTrust " dataDxfId="4"/>
+    <tableColumn id="4" name="Commander Act" dataDxfId="3"/>
+    <tableColumn id="5" name="SourcePoint" dataDxfId="2"/>
+    <tableColumn id="7" name="DigiTrust" dataDxfId="1"/>
+    <tableColumn id="8" name="AppConsent® CMP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G21"/>
+  <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1059,15 +1111,16 @@
     <col min="5" max="5" width="42.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -1089,8 +1142,11 @@
       <c r="G7" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1108,8 +1164,11 @@
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1127,8 +1186,9 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
@@ -1146,8 +1206,11 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
@@ -1165,8 +1228,9 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1246,11 @@
       <c r="E12" s="17"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1199,8 +1266,11 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -1218,8 +1288,11 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1237,8 +1310,11 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -1254,8 +1330,11 @@
       <c r="E16" s="17"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -1271,8 +1350,9 @@
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1294,8 +1374,11 @@
       <c r="G18" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -1311,8 +1394,9 @@
       <c r="E19" s="17"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
@@ -1322,8 +1406,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>36</v>
       </c>
@@ -1335,6 +1420,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="23"/>
       <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
